--- a/medicine/Sexualité et sexologie/L'Esclave_(film,_1975)/L'Esclave_(film,_1975).xlsx
+++ b/medicine/Sexualité et sexologie/L'Esclave_(film,_1975)/L'Esclave_(film,_1975).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Esclave_(film,_1975)</t>
+          <t>L'Esclave_(film,_1975)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Esclave (The Image) est un film américain réalisé par Radley Metzger, sorti en 1975.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Esclave_(film,_1975)</t>
+          <t>L'Esclave_(film,_1975)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Esclave_(film,_1975)</t>
+          <t>L'Esclave_(film,_1975)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : The Image
 Titre français : L'Esclave
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Esclave_(film,_1975)</t>
+          <t>L'Esclave_(film,_1975)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mary Mendum : Anne
 Carl Parker : Jean
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Esclave_(film,_1975)</t>
+          <t>L'Esclave_(film,_1975)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ressources relatives à l'audiovisuel : AllMovie Allociné Cinémathèque québécoise Filmweb.pl IMDb Movie Review Query Engine OFDb Rotten Tomatoes The Movie Database 
  Portail du cinéma américain   Portail des années 1970   Portail de la sexualité et de la sexologie                   </t>
